--- a/Organizacion/DAW2_MyControlPark_Proyecto05_PlantillaDiagramaDeGantt.xlsx
+++ b/Organizacion/DAW2_MyControlPark_Proyecto05_PlantillaDiagramaDeGantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnes_mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC501DD-945D-4993-AA90-FB9DF90C7813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F63FB06-62E5-1F4A-B910-CA4EC5C42061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama de Gantt" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>PLANTILLA DE DIAGRAMA DE GANTT</t>
   </si>
@@ -177,15 +177,9 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>Reservas</t>
-  </si>
-  <si>
     <t>1.4</t>
   </si>
   <si>
-    <t>Crud Admin</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
@@ -195,15 +189,6 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>Chat</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>Mapa ubicaciones</t>
-  </si>
-  <si>
     <t>1.8</t>
   </si>
   <si>
@@ -213,10 +198,82 @@
     <t>1.9</t>
   </si>
   <si>
-    <t>Mapa coches</t>
-  </si>
-  <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Página inicio</t>
+  </si>
+  <si>
+    <t>Modif. Login</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Unificar estilos web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Filtros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          CRUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Asignar reserva empleado</t>
+  </si>
+  <si>
+    <t>Mapa ubicaciones(CRUD Park)</t>
+  </si>
+  <si>
+    <t>Crud Admin (empresas, gestores)</t>
+  </si>
+  <si>
+    <t>Revisar mockup</t>
+  </si>
+  <si>
+    <t>CRUD Reservas (Gestor)</t>
+  </si>
+  <si>
+    <t>80%%</t>
+  </si>
+  <si>
+    <t>CRUD empleados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Modif graficamente ubic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CRUD reservas</t>
+  </si>
+  <si>
+    <t>Login empleados</t>
+  </si>
+  <si>
+    <t>Listado reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Detalle reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Mapa coches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Chat (Empleados)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CRUD de regitro empleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CRUD entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CRUD salida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Ver asignaciones(filtros)</t>
+  </si>
+  <si>
+    <t>Cliente</t>
   </si>
 </sst>
 </file>
@@ -228,7 +285,7 @@
     <numFmt numFmtId="165" formatCode="d\.m"/>
     <numFmt numFmtId="166" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -387,7 +444,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,12 +531,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -775,11 +856,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -935,24 +1036,33 @@
     <xf numFmtId="12" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="12" fontId="25" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="25" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,43 +1081,151 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="24" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="24" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="24" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="25" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="24" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="13">
     <dxf>
       <font>
-        <color theme="9" tint="0.59996337778862885"/>
+        <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -1024,74 +1242,6 @@
           <color theme="0"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1143,30 +1293,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -1177,11 +1303,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4" tint="-0.24994659260841701"/>
+        <color theme="5" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1255,6 +1381,30 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="6" tint="0.39994506668294322"/>
       </font>
       <fill>
@@ -1284,30 +1434,6 @@
         </top>
         <bottom style="thin">
           <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2"/>
-        </left>
-        <right style="thin">
-          <color theme="2"/>
-        </right>
-        <top style="thin">
-          <color theme="2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2"/>
         </bottom>
       </border>
     </dxf>
@@ -1526,40 +1652,41 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BG1005"/>
+  <dimension ref="A1:BE1006"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="10" topLeftCell="X17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="11" ySplit="10" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="21" customHeight="1">
+    <row r="1" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1582,32 +1709,32 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:57" ht="51.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:57" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="44"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
     </row>
-    <row r="3" spans="1:57" ht="21" customHeight="1" thickTop="1">
+    <row r="3" spans="1:57" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1630,7 +1757,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:57" ht="21" customHeight="1">
+    <row r="4" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="28" t="s">
         <v>1</v>
@@ -1662,7 +1789,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:57" ht="21" customHeight="1">
+    <row r="5" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="28" t="s">
         <v>4</v>
@@ -1702,7 +1829,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:57" ht="21" customHeight="1">
+    <row r="6" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="28" t="s">
         <v>11</v>
@@ -1739,7 +1866,7 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
     </row>
-    <row r="7" spans="1:57" ht="21" customHeight="1">
+    <row r="7" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="28" t="s">
         <v>12</v>
@@ -1776,170 +1903,170 @@
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
     </row>
-    <row r="8" spans="1:57" ht="17.25" customHeight="1">
+    <row r="8" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="63" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="33"/>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="63" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="33"/>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="67" t="s">
+      <c r="K8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="61" t="s">
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="62"/>
-      <c r="BB8" s="62"/>
-      <c r="BC8" s="62"/>
-      <c r="BD8" s="62"/>
-      <c r="BE8" s="62"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="69"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="69"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
     </row>
-    <row r="9" spans="1:57" ht="17.25" customHeight="1">
+    <row r="9" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
-      <c r="B9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="68" t="s">
+      <c r="B9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="69" t="s">
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="64" t="s">
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="66" t="s">
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="60" t="s">
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="68" t="s">
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AM9" s="75"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="69" t="s">
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="AS9" s="69"/>
-      <c r="AT9" s="69"/>
-      <c r="AU9" s="70"/>
-      <c r="AV9" s="64" t="s">
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="75"/>
+      <c r="AU9" s="76"/>
+      <c r="AV9" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="65"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="66" t="s">
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="BC9" s="77"/>
-      <c r="BD9" s="77"/>
-      <c r="BE9" s="77"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="74"/>
     </row>
-    <row r="10" spans="1:57" ht="17.25" customHeight="1">
+    <row r="10" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
-      <c r="B10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
+      <c r="B10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
       <c r="L10" s="46" t="s">
         <v>32</v>
       </c>
@@ -2079,7 +2206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="21" customHeight="1">
+    <row r="11" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="16">
         <v>1</v>
@@ -2142,9 +2269,9 @@
       <c r="BD11" s="19"/>
       <c r="BE11" s="19"/>
     </row>
-    <row r="12" spans="1:57" ht="26.25" outlineLevel="1">
+    <row r="12" spans="1:57" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="26"/>
@@ -2159,10 +2286,7 @@
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="43">
-        <f>IF(ISBLANK(F12), 0, G12-F12+1)</f>
-        <v>-45404</v>
-      </c>
+      <c r="I12" s="43"/>
       <c r="J12" s="36">
         <f>COUNTA(L12:BE12)</f>
         <v>6</v>
@@ -2229,82 +2353,42 @@
       <c r="BD12" s="35"/>
       <c r="BE12" s="53"/>
     </row>
-    <row r="13" spans="1:57" ht="18.75" customHeight="1" outlineLevel="1">
+    <row r="13" spans="1:57" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
-      <c r="B13" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="22"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="22" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="40">
-        <v>45405</v>
-      </c>
+      <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="43">
-        <f>IF(ISBLANK(F13), 0, G13-F13+1)</f>
-        <v>-45404</v>
-      </c>
+      <c r="I13" s="43"/>
       <c r="J13" s="36">
-        <f>COUNTA(L13:BE13)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K13" s="25">
         <v>1</v>
       </c>
-      <c r="L13" s="47">
-        <v>1</v>
-      </c>
-      <c r="M13" s="35">
-        <v>1</v>
-      </c>
-      <c r="N13" s="35">
-        <v>1</v>
-      </c>
-      <c r="O13" s="35">
-        <v>1</v>
-      </c>
-      <c r="P13" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="49">
-        <v>1</v>
-      </c>
-      <c r="R13" s="48">
-        <v>1</v>
-      </c>
-      <c r="S13" s="35">
-        <v>1</v>
-      </c>
-      <c r="T13" s="35">
-        <v>1</v>
-      </c>
-      <c r="U13" s="53">
-        <v>1</v>
-      </c>
-      <c r="V13" s="47">
-        <v>1</v>
-      </c>
-      <c r="W13" s="47">
-        <v>1</v>
-      </c>
-      <c r="X13" s="47">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="47">
-        <v>1</v>
-      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="100"/>
       <c r="AB13" s="47"/>
       <c r="AC13" s="35"/>
       <c r="AD13" s="35"/>
@@ -2314,14 +2398,14 @@
       <c r="AH13" s="35"/>
       <c r="AI13" s="35"/>
       <c r="AJ13" s="35"/>
-      <c r="AK13" s="49"/>
+      <c r="AK13" s="101"/>
       <c r="AL13" s="47"/>
       <c r="AM13" s="35"/>
       <c r="AN13" s="35"/>
       <c r="AO13" s="35"/>
       <c r="AP13" s="35"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="48"/>
+      <c r="AQ13" s="101"/>
+      <c r="AR13" s="47"/>
       <c r="AS13" s="35"/>
       <c r="AT13" s="35"/>
       <c r="AU13" s="53"/>
@@ -2336,53 +2420,83 @@
       <c r="BD13" s="35"/>
       <c r="BE13" s="53"/>
     </row>
-    <row r="14" spans="1:57" ht="13.5" outlineLevel="1">
+    <row r="14" spans="1:57" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
-      <c r="B14" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="40">
+      <c r="B14" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="95">
         <v>45405</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="43">
-        <f>IF(ISBLANK(F14), 0, G14-F14+1)</f>
-        <v>-45404</v>
-      </c>
-      <c r="J14" s="36">
-        <v>6</v>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="98">
+        <f>COUNTA(L14:BE14)</f>
+        <v>16</v>
       </c>
       <c r="K14" s="25">
         <v>1</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="53"/>
+      <c r="L14" s="47">
+        <v>1</v>
+      </c>
+      <c r="M14" s="35">
+        <v>1</v>
+      </c>
+      <c r="N14" s="35">
+        <v>1</v>
+      </c>
+      <c r="O14" s="35">
+        <v>1</v>
+      </c>
+      <c r="P14" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="49">
+        <v>1</v>
+      </c>
+      <c r="R14" s="48">
+        <v>1</v>
+      </c>
+      <c r="S14" s="35">
+        <v>1</v>
+      </c>
+      <c r="T14" s="35">
+        <v>1</v>
+      </c>
+      <c r="U14" s="53">
+        <v>1</v>
+      </c>
+      <c r="V14" s="47">
+        <v>1</v>
+      </c>
+      <c r="W14" s="47">
+        <v>1</v>
+      </c>
+      <c r="X14" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="47">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="47">
+        <v>1</v>
+      </c>
       <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="53"/>
       <c r="AF14" s="47"/>
       <c r="AG14" s="35"/>
       <c r="AH14" s="35"/>
@@ -2410,94 +2524,46 @@
       <c r="BD14" s="35"/>
       <c r="BE14" s="53"/>
     </row>
-    <row r="15" spans="1:57" ht="25.9" customHeight="1" outlineLevel="1">
+    <row r="15" spans="1:57" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
-      <c r="B15" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="40">
-        <v>45405</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="43">
-        <f>IF(ISBLANK(F15), 0, G15-F15+1)</f>
-        <v>-45404</v>
-      </c>
-      <c r="J15" s="36">
-        <f>COUNTA(L15:BE15)</f>
-        <v>20</v>
+      <c r="B15" s="55"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="98" t="s">
+        <v>54</v>
       </c>
       <c r="K15" s="25">
         <v>1</v>
       </c>
-      <c r="L15" s="47">
-        <v>1</v>
-      </c>
-      <c r="M15" s="35">
-        <v>1</v>
-      </c>
-      <c r="N15" s="35">
-        <v>1</v>
-      </c>
-      <c r="O15" s="35">
-        <v>1</v>
-      </c>
-      <c r="P15" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="49">
-        <v>1</v>
-      </c>
-      <c r="R15" s="48">
-        <v>1</v>
-      </c>
-      <c r="S15" s="35">
-        <v>1</v>
-      </c>
-      <c r="T15" s="35">
-        <v>1</v>
-      </c>
-      <c r="U15" s="53">
-        <v>1</v>
-      </c>
-      <c r="V15" s="47">
-        <v>1</v>
-      </c>
-      <c r="W15" s="47">
-        <v>1</v>
-      </c>
-      <c r="X15" s="47">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="47">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="47">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="47">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="47">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="47">
-        <v>1</v>
-      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="100"/>
       <c r="AF15" s="47"/>
       <c r="AG15" s="35"/>
       <c r="AH15" s="35"/>
@@ -2525,30 +2591,27 @@
       <c r="BD15" s="35"/>
       <c r="BE15" s="53"/>
     </row>
-    <row r="16" spans="1:57" ht="25.9" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:57" ht="26" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
-      <c r="B16" s="56" t="s">
-        <v>47</v>
+      <c r="B16" s="55" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="27"/>
-      <c r="D16" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="40">
+      <c r="D16" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="89">
         <v>45405</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="43">
-        <f>IF(ISBLANK(F16), 0, G16-F16+1)</f>
-        <v>-45404</v>
-      </c>
-      <c r="J16" s="36">
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92">
         <f>COUNTA(L16:BE16)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K16" s="25">
         <v>1</v>
@@ -2613,16 +2676,10 @@
       <c r="AE16" s="47">
         <v>1</v>
       </c>
-      <c r="AF16" s="47">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="47">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="47">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="47"/>
+      <c r="AF16" s="47"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
       <c r="AJ16" s="35"/>
       <c r="AK16" s="49"/>
       <c r="AL16" s="47"/>
@@ -2646,30 +2703,27 @@
       <c r="BD16" s="35"/>
       <c r="BE16" s="53"/>
     </row>
-    <row r="17" spans="1:57" ht="27.75" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:57" ht="26" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
-      <c r="B17" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22" t="s">
-        <v>50</v>
+      <c r="B17" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="78" t="s">
+        <v>46</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17" s="40">
         <v>45405</v>
       </c>
       <c r="G17" s="40"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="43">
-        <f>IF(ISBLANK(F17), 0, G17-F17+1)</f>
-        <v>-45404</v>
-      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="36">
         <f>COUNTA(L17:BE17)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" s="25">
         <v>1</v>
@@ -2695,16 +2749,16 @@
       <c r="R17" s="48">
         <v>1</v>
       </c>
-      <c r="S17" s="48">
-        <v>1</v>
-      </c>
-      <c r="T17" s="48">
-        <v>1</v>
-      </c>
-      <c r="U17" s="48">
-        <v>1</v>
-      </c>
-      <c r="V17" s="59">
+      <c r="S17" s="35">
+        <v>1</v>
+      </c>
+      <c r="T17" s="35">
+        <v>1</v>
+      </c>
+      <c r="U17" s="53">
+        <v>1</v>
+      </c>
+      <c r="V17" s="47">
         <v>1</v>
       </c>
       <c r="W17" s="47">
@@ -2722,32 +2776,30 @@
       <c r="AA17" s="47">
         <v>1</v>
       </c>
-      <c r="AB17" s="48">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="48">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="48">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="48">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="48">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="48">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="48">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="48">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="54"/>
+      <c r="AB17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="47">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="49"/>
       <c r="AL17" s="47"/>
       <c r="AM17" s="35"/>
       <c r="AN17" s="35"/>
@@ -2769,14 +2821,14 @@
       <c r="BD17" s="35"/>
       <c r="BE17" s="53"/>
     </row>
-    <row r="18" spans="1:57" ht="13.5" outlineLevel="1">
+    <row r="18" spans="1:57" ht="22" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
-      <c r="B18" s="56" t="s">
-        <v>51</v>
+      <c r="B18" s="55" t="s">
+        <v>48</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="22" t="s">
-        <v>52</v>
+      <c r="D18" s="77" t="s">
+        <v>49</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>6</v>
@@ -2810,7 +2862,7 @@
       <c r="AB18" s="47"/>
       <c r="AC18" s="47"/>
       <c r="AD18" s="47"/>
-      <c r="AE18" s="57"/>
+      <c r="AE18" s="56"/>
       <c r="AF18" s="47"/>
       <c r="AG18" s="47"/>
       <c r="AH18" s="47"/>
@@ -2838,28 +2890,24 @@
       <c r="BD18" s="35"/>
       <c r="BE18" s="53"/>
     </row>
-    <row r="19" spans="1:57" ht="13.5" outlineLevel="1">
+    <row r="19" spans="1:57" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
-      <c r="B19" s="56" t="s">
-        <v>53</v>
-      </c>
+      <c r="B19" s="55"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="40">
-        <v>45408</v>
-      </c>
+      <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="24"/>
       <c r="I19" s="43"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="25">
-        <v>1</v>
-      </c>
+      <c r="J19" s="36">
+        <v>12</v>
+      </c>
+      <c r="K19" s="25"/>
       <c r="L19" s="47"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
@@ -2879,7 +2927,7 @@
       <c r="AB19" s="47"/>
       <c r="AC19" s="47"/>
       <c r="AD19" s="47"/>
-      <c r="AE19" s="57"/>
+      <c r="AE19" s="56"/>
       <c r="AF19" s="47"/>
       <c r="AG19" s="47"/>
       <c r="AH19" s="47"/>
@@ -2907,27 +2955,23 @@
       <c r="BD19" s="35"/>
       <c r="BE19" s="53"/>
     </row>
-    <row r="20" spans="1:57" ht="13.5" outlineLevel="1">
+    <row r="20" spans="1:57" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
-      <c r="B20" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="40">
-        <v>45408</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="25">
-        <v>1</v>
+      <c r="B20" s="55"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="L20" s="47"/>
       <c r="M20" s="35"/>
@@ -2948,7 +2992,7 @@
       <c r="AB20" s="47"/>
       <c r="AC20" s="47"/>
       <c r="AD20" s="47"/>
-      <c r="AE20" s="57"/>
+      <c r="AE20" s="56"/>
       <c r="AF20" s="47"/>
       <c r="AG20" s="47"/>
       <c r="AH20" s="47"/>
@@ -2976,17 +3020,21 @@
       <c r="BD20" s="35"/>
       <c r="BE20" s="53"/>
     </row>
-    <row r="21" spans="1:57" ht="12.75" outlineLevel="1">
+    <row r="21" spans="1:57" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="36"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
       <c r="K21" s="25"/>
       <c r="L21" s="47"/>
       <c r="M21" s="35"/>
@@ -3007,7 +3055,7 @@
       <c r="AB21" s="47"/>
       <c r="AC21" s="47"/>
       <c r="AD21" s="47"/>
-      <c r="AE21" s="57"/>
+      <c r="AE21" s="56"/>
       <c r="AF21" s="47"/>
       <c r="AG21" s="47"/>
       <c r="AH21" s="47"/>
@@ -3035,18 +3083,30 @@
       <c r="BD21" s="35"/>
       <c r="BE21" s="53"/>
     </row>
-    <row r="22" spans="1:57" ht="12.75" outlineLevel="1">
+    <row r="22" spans="1:57" ht="13" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="25"/>
+      <c r="B22" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="86"/>
+      <c r="D22" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="82">
+        <v>45405</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85">
+        <v>6</v>
+      </c>
+      <c r="K22" s="25">
+        <v>1</v>
+      </c>
       <c r="L22" s="47"/>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
@@ -3066,7 +3126,7 @@
       <c r="AB22" s="47"/>
       <c r="AC22" s="47"/>
       <c r="AD22" s="47"/>
-      <c r="AE22" s="57"/>
+      <c r="AE22" s="56"/>
       <c r="AF22" s="47"/>
       <c r="AG22" s="47"/>
       <c r="AH22" s="47"/>
@@ -3094,17 +3154,21 @@
       <c r="BD22" s="35"/>
       <c r="BE22" s="53"/>
     </row>
-    <row r="23" spans="1:57" ht="25.9" customHeight="1" outlineLevel="1">
+    <row r="23" spans="1:57" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="36"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
       <c r="K23" s="25"/>
       <c r="L23" s="47"/>
       <c r="M23" s="35"/>
@@ -3125,7 +3189,7 @@
       <c r="AB23" s="47"/>
       <c r="AC23" s="47"/>
       <c r="AD23" s="47"/>
-      <c r="AE23" s="57"/>
+      <c r="AE23" s="56"/>
       <c r="AF23" s="47"/>
       <c r="AG23" s="47"/>
       <c r="AH23" s="47"/>
@@ -3153,17 +3217,21 @@
       <c r="BD23" s="35"/>
       <c r="BE23" s="53"/>
     </row>
-    <row r="24" spans="1:57" ht="27" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:57" ht="23" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="36"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
       <c r="K24" s="25"/>
       <c r="L24" s="47"/>
       <c r="M24" s="35"/>
@@ -3184,7 +3252,7 @@
       <c r="AB24" s="47"/>
       <c r="AC24" s="47"/>
       <c r="AD24" s="47"/>
-      <c r="AE24" s="57"/>
+      <c r="AE24" s="56"/>
       <c r="AF24" s="47"/>
       <c r="AG24" s="47"/>
       <c r="AH24" s="47"/>
@@ -3212,18 +3280,22 @@
       <c r="BD24" s="35"/>
       <c r="BE24" s="53"/>
     </row>
-    <row r="25" spans="1:57" ht="27" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:57" ht="19" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="20"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="25"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="L25" s="47"/>
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
@@ -3243,7 +3315,7 @@
       <c r="AB25" s="47"/>
       <c r="AC25" s="47"/>
       <c r="AD25" s="47"/>
-      <c r="AE25" s="57"/>
+      <c r="AE25" s="56"/>
       <c r="AF25" s="47"/>
       <c r="AG25" s="47"/>
       <c r="AH25" s="47"/>
@@ -3271,17 +3343,21 @@
       <c r="BD25" s="35"/>
       <c r="BE25" s="53"/>
     </row>
-    <row r="26" spans="1:57" ht="12.75" outlineLevel="1">
+    <row r="26" spans="1:57" ht="19" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="36"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
       <c r="K26" s="25"/>
       <c r="L26" s="47"/>
       <c r="M26" s="35"/>
@@ -3302,7 +3378,7 @@
       <c r="AB26" s="47"/>
       <c r="AC26" s="47"/>
       <c r="AD26" s="47"/>
-      <c r="AE26" s="57"/>
+      <c r="AE26" s="56"/>
       <c r="AF26" s="47"/>
       <c r="AG26" s="47"/>
       <c r="AH26" s="47"/>
@@ -3330,17 +3406,21 @@
       <c r="BD26" s="35"/>
       <c r="BE26" s="53"/>
     </row>
-    <row r="27" spans="1:57" ht="12.75" outlineLevel="1">
+    <row r="27" spans="1:57" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="36"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
       <c r="K27" s="25"/>
       <c r="L27" s="47"/>
       <c r="M27" s="35"/>
@@ -3361,7 +3441,7 @@
       <c r="AB27" s="47"/>
       <c r="AC27" s="47"/>
       <c r="AD27" s="47"/>
-      <c r="AE27" s="57"/>
+      <c r="AE27" s="56"/>
       <c r="AF27" s="47"/>
       <c r="AG27" s="47"/>
       <c r="AH27" s="47"/>
@@ -3389,18 +3469,26 @@
       <c r="BD27" s="35"/>
       <c r="BE27" s="53"/>
     </row>
-    <row r="28" spans="1:57" ht="12.75" outlineLevel="1">
+    <row r="28" spans="1:57" ht="19" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="25"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="82">
+        <v>45408</v>
+      </c>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="25">
+        <v>1</v>
+      </c>
       <c r="L28" s="47"/>
       <c r="M28" s="35"/>
       <c r="N28" s="35"/>
@@ -3420,7 +3508,7 @@
       <c r="AB28" s="47"/>
       <c r="AC28" s="47"/>
       <c r="AD28" s="47"/>
-      <c r="AE28" s="57"/>
+      <c r="AE28" s="56"/>
       <c r="AF28" s="47"/>
       <c r="AG28" s="47"/>
       <c r="AH28" s="47"/>
@@ -3448,17 +3536,21 @@
       <c r="BD28" s="35"/>
       <c r="BE28" s="53"/>
     </row>
-    <row r="29" spans="1:57" ht="22.9" customHeight="1" outlineLevel="1">
+    <row r="29" spans="1:57" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="20"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="36"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
       <c r="K29" s="25"/>
       <c r="L29" s="47"/>
       <c r="M29" s="35"/>
@@ -3479,7 +3571,7 @@
       <c r="AB29" s="47"/>
       <c r="AC29" s="47"/>
       <c r="AD29" s="47"/>
-      <c r="AE29" s="57"/>
+      <c r="AE29" s="56"/>
       <c r="AF29" s="47"/>
       <c r="AG29" s="47"/>
       <c r="AH29" s="47"/>
@@ -3507,17 +3599,21 @@
       <c r="BD29" s="35"/>
       <c r="BE29" s="53"/>
     </row>
-    <row r="30" spans="1:57" ht="27" customHeight="1" outlineLevel="1">
+    <row r="30" spans="1:57" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A30" s="20"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="36"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
       <c r="K30" s="25"/>
       <c r="L30" s="47"/>
       <c r="M30" s="35"/>
@@ -3538,7 +3634,7 @@
       <c r="AB30" s="47"/>
       <c r="AC30" s="47"/>
       <c r="AD30" s="47"/>
-      <c r="AE30" s="57"/>
+      <c r="AE30" s="56"/>
       <c r="AF30" s="47"/>
       <c r="AG30" s="47"/>
       <c r="AH30" s="47"/>
@@ -3566,17 +3662,21 @@
       <c r="BD30" s="35"/>
       <c r="BE30" s="53"/>
     </row>
-    <row r="31" spans="1:57" ht="27" customHeight="1" outlineLevel="1">
+    <row r="31" spans="1:57" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="36"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
       <c r="K31" s="25"/>
       <c r="L31" s="47"/>
       <c r="M31" s="35"/>
@@ -3597,7 +3697,7 @@
       <c r="AB31" s="47"/>
       <c r="AC31" s="47"/>
       <c r="AD31" s="47"/>
-      <c r="AE31" s="57"/>
+      <c r="AE31" s="56"/>
       <c r="AF31" s="47"/>
       <c r="AG31" s="47"/>
       <c r="AH31" s="47"/>
@@ -3625,18 +3725,24 @@
       <c r="BD31" s="35"/>
       <c r="BE31" s="53"/>
     </row>
-    <row r="32" spans="1:57" ht="27" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:57" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="25"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="25">
+        <v>1</v>
+      </c>
       <c r="L32" s="47"/>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
@@ -3656,7 +3762,7 @@
       <c r="AB32" s="47"/>
       <c r="AC32" s="47"/>
       <c r="AD32" s="47"/>
-      <c r="AE32" s="57"/>
+      <c r="AE32" s="56"/>
       <c r="AF32" s="47"/>
       <c r="AG32" s="47"/>
       <c r="AH32" s="47"/>
@@ -3684,17 +3790,19 @@
       <c r="BD32" s="35"/>
       <c r="BE32" s="53"/>
     </row>
-    <row r="33" spans="1:59" ht="27" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:57" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="20"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="36"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="103"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="107"/>
       <c r="K33" s="25"/>
       <c r="L33" s="47"/>
       <c r="M33" s="35"/>
@@ -3715,7 +3823,7 @@
       <c r="AB33" s="47"/>
       <c r="AC33" s="47"/>
       <c r="AD33" s="47"/>
-      <c r="AE33" s="57"/>
+      <c r="AE33" s="56"/>
       <c r="AF33" s="47"/>
       <c r="AG33" s="47"/>
       <c r="AH33" s="47"/>
@@ -3743,17 +3851,21 @@
       <c r="BD33" s="35"/>
       <c r="BE33" s="53"/>
     </row>
-    <row r="34" spans="1:59" ht="27" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:57" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A34" s="20"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="36"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="107"/>
       <c r="K34" s="25"/>
       <c r="L34" s="47"/>
       <c r="M34" s="35"/>
@@ -3774,7 +3886,7 @@
       <c r="AB34" s="47"/>
       <c r="AC34" s="47"/>
       <c r="AD34" s="47"/>
-      <c r="AE34" s="57"/>
+      <c r="AE34" s="56"/>
       <c r="AF34" s="47"/>
       <c r="AG34" s="47"/>
       <c r="AH34" s="47"/>
@@ -3802,17 +3914,21 @@
       <c r="BD34" s="35"/>
       <c r="BE34" s="53"/>
     </row>
-    <row r="35" spans="1:59" ht="27" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:57" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="20"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="36"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="107"/>
       <c r="K35" s="25"/>
       <c r="L35" s="47"/>
       <c r="M35" s="35"/>
@@ -3833,7 +3949,7 @@
       <c r="AB35" s="47"/>
       <c r="AC35" s="47"/>
       <c r="AD35" s="47"/>
-      <c r="AE35" s="57"/>
+      <c r="AE35" s="56"/>
       <c r="AF35" s="47"/>
       <c r="AG35" s="47"/>
       <c r="AH35" s="47"/>
@@ -3861,17 +3977,21 @@
       <c r="BD35" s="35"/>
       <c r="BE35" s="53"/>
     </row>
-    <row r="36" spans="1:59" ht="27" customHeight="1" outlineLevel="1">
+    <row r="36" spans="1:57" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="20"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="36"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="107"/>
       <c r="K36" s="25"/>
       <c r="L36" s="47"/>
       <c r="M36" s="35"/>
@@ -3892,7 +4012,7 @@
       <c r="AB36" s="47"/>
       <c r="AC36" s="47"/>
       <c r="AD36" s="47"/>
-      <c r="AE36" s="57"/>
+      <c r="AE36" s="56"/>
       <c r="AF36" s="47"/>
       <c r="AG36" s="47"/>
       <c r="AH36" s="47"/>
@@ -3920,17 +4040,21 @@
       <c r="BD36" s="35"/>
       <c r="BE36" s="53"/>
     </row>
-    <row r="37" spans="1:59" ht="27" customHeight="1" outlineLevel="1">
+    <row r="37" spans="1:57" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A37" s="20"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="36"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="107"/>
       <c r="K37" s="25"/>
       <c r="L37" s="47"/>
       <c r="M37" s="35"/>
@@ -3951,7 +4075,7 @@
       <c r="AB37" s="47"/>
       <c r="AC37" s="47"/>
       <c r="AD37" s="47"/>
-      <c r="AE37" s="57"/>
+      <c r="AE37" s="56"/>
       <c r="AF37" s="47"/>
       <c r="AG37" s="47"/>
       <c r="AH37" s="47"/>
@@ -3978,21 +4102,29 @@
       <c r="BC37" s="35"/>
       <c r="BD37" s="35"/>
       <c r="BE37" s="53"/>
-      <c r="BF37" s="58"/>
-      <c r="BG37" s="58"/>
     </row>
-    <row r="38" spans="1:59" ht="27" customHeight="1" outlineLevel="1">
+    <row r="38" spans="1:57" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A38" s="20"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="25"/>
+      <c r="B38" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="109"/>
+      <c r="D38" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="104">
+        <v>45408</v>
+      </c>
+      <c r="G38" s="104"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="25">
+        <v>1</v>
+      </c>
       <c r="L38" s="47"/>
       <c r="M38" s="35"/>
       <c r="N38" s="35"/>
@@ -4012,7 +4144,7 @@
       <c r="AB38" s="47"/>
       <c r="AC38" s="47"/>
       <c r="AD38" s="47"/>
-      <c r="AE38" s="57"/>
+      <c r="AE38" s="56"/>
       <c r="AF38" s="47"/>
       <c r="AG38" s="47"/>
       <c r="AH38" s="47"/>
@@ -4040,18 +4172,31 @@
       <c r="BD38" s="35"/>
       <c r="BE38" s="53"/>
     </row>
-    <row r="39" spans="1:59" ht="27" customHeight="1" outlineLevel="1">
+    <row r="39" spans="1:57" ht="17" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A39" s="20"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="25"/>
+      <c r="B39" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="110"/>
+      <c r="D39" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="104">
+        <v>45405</v>
+      </c>
+      <c r="G39" s="104"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="107">
+        <f>COUNTA(#REF!)</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="25">
+        <v>1</v>
+      </c>
       <c r="L39" s="47"/>
       <c r="M39" s="35"/>
       <c r="N39" s="35"/>
@@ -4071,7 +4216,7 @@
       <c r="AB39" s="47"/>
       <c r="AC39" s="47"/>
       <c r="AD39" s="47"/>
-      <c r="AE39" s="57"/>
+      <c r="AE39" s="56"/>
       <c r="AF39" s="47"/>
       <c r="AG39" s="47"/>
       <c r="AH39" s="47"/>
@@ -4099,17 +4244,21 @@
       <c r="BD39" s="35"/>
       <c r="BE39" s="53"/>
     </row>
-    <row r="40" spans="1:59" ht="27" customHeight="1" outlineLevel="1">
+    <row r="40" spans="1:57" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A40" s="20"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="36"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="107"/>
       <c r="K40" s="25"/>
       <c r="L40" s="47"/>
       <c r="M40" s="35"/>
@@ -4130,7 +4279,7 @@
       <c r="AB40" s="47"/>
       <c r="AC40" s="47"/>
       <c r="AD40" s="47"/>
-      <c r="AE40" s="57"/>
+      <c r="AE40" s="56"/>
       <c r="AF40" s="47"/>
       <c r="AG40" s="47"/>
       <c r="AH40" s="47"/>
@@ -4158,11 +4307,13 @@
       <c r="BD40" s="35"/>
       <c r="BE40" s="53"/>
     </row>
-    <row r="41" spans="1:59" ht="30.6" customHeight="1" outlineLevel="1">
+    <row r="41" spans="1:57" ht="20" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A41" s="20"/>
-      <c r="B41" s="56"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="E41" s="23"/>
       <c r="F41" s="40"/>
       <c r="G41" s="40"/>
@@ -4189,7 +4340,7 @@
       <c r="AB41" s="47"/>
       <c r="AC41" s="47"/>
       <c r="AD41" s="47"/>
-      <c r="AE41" s="57"/>
+      <c r="AE41" s="56"/>
       <c r="AF41" s="47"/>
       <c r="AG41" s="47"/>
       <c r="AH41" s="47"/>
@@ -4217,9 +4368,9 @@
       <c r="BD41" s="35"/>
       <c r="BE41" s="53"/>
     </row>
-    <row r="42" spans="1:59" ht="30.6" customHeight="1" outlineLevel="1">
+    <row r="42" spans="1:57" ht="30.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="20"/>
-      <c r="B42" s="56"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="21"/>
       <c r="D42" s="22"/>
       <c r="E42" s="23"/>
@@ -4248,7 +4399,7 @@
       <c r="AB42" s="47"/>
       <c r="AC42" s="47"/>
       <c r="AD42" s="47"/>
-      <c r="AE42" s="57"/>
+      <c r="AE42" s="56"/>
       <c r="AF42" s="47"/>
       <c r="AG42" s="47"/>
       <c r="AH42" s="47"/>
@@ -4276,9 +4427,9 @@
       <c r="BD42" s="35"/>
       <c r="BE42" s="53"/>
     </row>
-    <row r="43" spans="1:59" ht="30.6" customHeight="1" outlineLevel="1">
+    <row r="43" spans="1:57" ht="30.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A43" s="20"/>
-      <c r="B43" s="56"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
       <c r="E43" s="23"/>
@@ -4307,7 +4458,7 @@
       <c r="AB43" s="47"/>
       <c r="AC43" s="47"/>
       <c r="AD43" s="47"/>
-      <c r="AE43" s="57"/>
+      <c r="AE43" s="56"/>
       <c r="AF43" s="47"/>
       <c r="AG43" s="47"/>
       <c r="AH43" s="47"/>
@@ -4335,1000 +4486,1051 @@
       <c r="BD43" s="35"/>
       <c r="BE43" s="53"/>
     </row>
-    <row r="44" spans="1:59" ht="23.45" outlineLevel="1">
-      <c r="B44" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="63">
-        <f>SUM(COUNTA(D12:D14), COUNTA(D17:D21), COUNTA(D26:D26))</f>
-        <v>7</v>
-      </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="39">
-        <f>SUM(J12:J43)</f>
-        <v>95</v>
-      </c>
-      <c r="K44" s="38"/>
+    <row r="44" spans="1:57" ht="30.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="20"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
+      <c r="AE44" s="56"/>
+      <c r="AF44" s="47"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="47"/>
+      <c r="AJ44" s="47"/>
+      <c r="AK44" s="54"/>
+      <c r="AL44" s="47"/>
+      <c r="AM44" s="35"/>
+      <c r="AN44" s="35"/>
+      <c r="AO44" s="35"/>
+      <c r="AP44" s="35"/>
+      <c r="AQ44" s="49"/>
+      <c r="AR44" s="48"/>
+      <c r="AS44" s="35"/>
+      <c r="AT44" s="35"/>
+      <c r="AU44" s="53"/>
+      <c r="AV44" s="47"/>
+      <c r="AW44" s="35"/>
+      <c r="AX44" s="35"/>
+      <c r="AY44" s="35"/>
+      <c r="AZ44" s="35"/>
+      <c r="BA44" s="53"/>
+      <c r="BB44" s="47"/>
+      <c r="BC44" s="35"/>
+      <c r="BD44" s="35"/>
+      <c r="BE44" s="53"/>
     </row>
-    <row r="45" spans="1:59" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:59" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:59" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:59" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:57" ht="23" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="70">
+        <f>SUM(COUNTA(D12:D14), COUNTA(D18:D38), COUNTA(D21:D21))</f>
+        <v>25</v>
+      </c>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="39">
+        <f>SUM(J12:J44)</f>
+        <v>86</v>
+      </c>
+      <c r="K45" s="38"/>
+    </row>
+    <row r="46" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="I8:I10"/>
     <mergeCell ref="AF9:AK9"/>
     <mergeCell ref="AF8:BE8"/>
-    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
     <mergeCell ref="V9:AA9"/>
     <mergeCell ref="AB9:AE9"/>
     <mergeCell ref="G8:G10"/>
@@ -5340,71 +5542,79 @@
     <mergeCell ref="AV9:BA9"/>
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="I8:I10"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
-  <conditionalFormatting sqref="AF13:AQ15 L13:Q43 AJ16:AQ16">
-    <cfRule type="cellIs" dxfId="16" priority="79" operator="equal">
+  <conditionalFormatting sqref="R12:U44 AR12:AU44">
+    <cfRule type="cellIs" dxfId="12" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR12:AU43 R12:U43">
-    <cfRule type="cellIs" dxfId="15" priority="78" operator="equal">
+  <conditionalFormatting sqref="V12:AA44 AV12:BA44">
+    <cfRule type="cellIs" dxfId="11" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV12:BA43 V12:AA43">
-    <cfRule type="cellIs" dxfId="14" priority="58" operator="equal">
+  <conditionalFormatting sqref="AB14:AE15 BB14:BE15 AB17:AI17 AB18:AE44">
+    <cfRule type="cellIs" dxfId="10" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB13:BE14 AB18:AE43 AB16:AI16 AB13:AE14">
-    <cfRule type="cellIs" dxfId="13" priority="77" operator="equal">
+  <conditionalFormatting sqref="AB16:AE16">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18:AE23">
-    <cfRule type="cellIs" dxfId="12" priority="38" operator="equal">
+  <conditionalFormatting sqref="AB18:AE18">
+    <cfRule type="cellIs" dxfId="8" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB12:BE43 AB18:AE43 AB12:AE16">
-    <cfRule type="cellIs" dxfId="10" priority="57" operator="equal">
+  <conditionalFormatting sqref="AB12:AE44 BB12:BE44">
+    <cfRule type="cellIs" dxfId="6" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF18:AK25 AJ17:AK17">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+  <conditionalFormatting sqref="AF17:AI17">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF26:AK43 AF12:AK15 AJ16:AK16">
-    <cfRule type="cellIs" dxfId="8" priority="44" operator="equal">
+  <conditionalFormatting sqref="AF12:AK16 AJ17:AK17 AF18:AK44">
+    <cfRule type="cellIs" dxfId="4" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF12:AQ15 L12:Q43 AJ16:AQ16">
-    <cfRule type="cellIs" dxfId="7" priority="62" operator="equal">
+  <conditionalFormatting sqref="AF12:AQ16 L12:Q44">
+    <cfRule type="cellIs" dxfId="3" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF18:AQ43 AJ17:AQ17">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+  <conditionalFormatting sqref="AF14:AQ16 L14:Q44">
+    <cfRule type="cellIs" dxfId="2" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF37:BG37">
-    <cfRule type="cellIs" dxfId="4" priority="47" operator="equal">
+  <conditionalFormatting sqref="AJ17:AQ17 AF18:AQ44">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K43">
-    <cfRule type="colorScale" priority="115">
+  <conditionalFormatting sqref="K12:K44">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5412,7 +5622,7 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="116">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5421,32 +5631,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V17:AI17">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF16:AI16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB15:AE15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB15:AE15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Asignado a:" sqref="E12:E43" xr:uid="{14B66BA0-BAA0-4F43-B181-173BB1931A49}">
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28 F22:G22 F12:G12 F14:G14 F39:G39 F16:G17 F38 F18" xr:uid="{F15EAB76-C387-46C0-9C16-5E3CAB150F0F}">
+      <formula1>G12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Asignado a:" sqref="E12:E38 E39:E44" xr:uid="{14B66BA0-BAA0-4F43-B181-173BB1931A49}">
       <formula1>$C$5:$H$5</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:G17 F18:F20" xr:uid="{F15EAB76-C387-46C0-9C16-5E3CAB150F0F}">
-      <formula1>G12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
